--- a/uploads/test.xlsx
+++ b/uploads/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>indhu</t>
   </si>
@@ -35,6 +35,24 @@
     <t>kg</t>
   </si>
   <si>
+    <t>biriyani</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>fbf</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -42,9 +60,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>typeid</t>
   </si>
   <si>
     <t>categoryid</t>
@@ -378,38 +393,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -420,16 +432,53 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
